--- a/Desafios-NLP/2021-02-Sentimentos-Twitter/Resultados.xlsx
+++ b/Desafios-NLP/2021-02-Sentimentos-Twitter/Resultados.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos\Cursos\Pos-BI-Master\Desafio NLP\Desafio 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\bi-master\Desafios-NLP\2021-02-Sentimentos-Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDB16AF-4794-4507-A342-545013883FED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D50A7A8-22B3-4780-AFC0-732DFC141D51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BC61AAF2-52F3-461E-89E6-B3D31226DBB8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{BC61AAF2-52F3-461E-89E6-B3D31226DBB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="3 Labels" sheetId="1" r:id="rId1"/>
+    <sheet name="Machine Learning" sheetId="1" r:id="rId1"/>
+    <sheet name="Recurrent Neural Network" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
   <si>
     <t>Tokenizer</t>
   </si>
@@ -97,13 +98,58 @@
   </si>
   <si>
     <t>Não</t>
+  </si>
+  <si>
+    <t>Tipo LSTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Padding</t>
+  </si>
+  <si>
+    <t>Acurácia</t>
+  </si>
+  <si>
+    <t>Acurácia Validação</t>
+  </si>
+  <si>
+    <t>&lt;unknown&gt;</t>
+  </si>
+  <si>
+    <t>Tamanho Sentença</t>
+  </si>
+  <si>
+    <t>Labels Agrupados</t>
+  </si>
+  <si>
+    <t># --&gt; &lt;hashtag&gt;</t>
+  </si>
+  <si>
+    <t>Agrupar Labels</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
+  </si>
+  <si>
+    <t>Acurácia Teste</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>LSTM somente</t>
+  </si>
+  <si>
+    <t>Bidirecional somente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +160,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -173,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +249,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,71 +576,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6853B0C-EF2B-4306-B2F3-118C39CCEC30}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.734375" customWidth="1"/>
-    <col min="2" max="2" width="13.1015625" customWidth="1"/>
-    <col min="3" max="3" width="12.47265625" customWidth="1"/>
-    <col min="4" max="4" width="20.26171875" customWidth="1"/>
-    <col min="5" max="5" width="11.5234375" customWidth="1"/>
-    <col min="6" max="6" width="13.47265625" customWidth="1"/>
-    <col min="8" max="8" width="9.89453125" customWidth="1"/>
-    <col min="9" max="9" width="14.578125" customWidth="1"/>
-    <col min="10" max="10" width="13.26171875" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="29.3671875" customWidth="1"/>
+    <col min="1" max="1" width="18" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="2" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -583,66 +653,72 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="1">
         <v>20</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>80</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="4">
+      <c r="K2" s="1"/>
+      <c r="L2" s="4">
         <v>77.5</v>
       </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="1">
         <v>20</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>80</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3">
+      <c r="K3" s="1"/>
+      <c r="L3" s="3">
         <v>77</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -651,100 +727,109 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>78.5</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3">
+      <c r="K4" s="1"/>
+      <c r="L4" s="3">
         <v>77</v>
       </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>68.400000000000006</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3">
+      <c r="K5" s="1"/>
+      <c r="L5" s="3">
         <v>68.2</v>
       </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.8</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>77.98</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3">
+      <c r="K6" s="1"/>
+      <c r="L6" s="3">
         <v>67.2</v>
       </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -755,32 +840,35 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.8</v>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>78.5</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3">
+      <c r="K7" s="1"/>
+      <c r="L7" s="3">
         <v>73.8</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+    <row r="8" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -789,194 +877,212 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="1">
         <v>20</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>80.099999999999994</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>80.2</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>80.7</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>80.7</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
+      <c r="L11" s="3"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="4">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H12" s="4">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>81.349999999999994</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="3">
+      <c r="K12" s="1"/>
+      <c r="L12" s="3">
         <v>77.28</v>
       </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.8</v>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>81.17</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -985,126 +1091,138 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>81.06</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>80.900000000000006</v>
       </c>
-      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>80.900000000000006</v>
       </c>
-      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G17" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>80.7</v>
       </c>
-      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -1113,126 +1231,138 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G18" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>81</v>
       </c>
-      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G19" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>79.7</v>
       </c>
-      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>79.7</v>
       </c>
-      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.8</v>
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>79.5</v>
       </c>
-      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
@@ -1241,28 +1371,33 @@
         <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.8</v>
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
         <v>76.430000000000007</v>
       </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1274,6 +1409,263 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEFB37-A6B4-48CA-B2ED-0A6E3AD82751}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="23.140625" style="8"/>
+    <col min="4" max="4" width="21" style="8" customWidth="1"/>
+    <col min="5" max="10" width="23.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8">
+        <v>32</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8">
+        <v>85.81</v>
+      </c>
+      <c r="H2" s="8">
+        <v>82.45</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8">
+        <v>89.31</v>
+      </c>
+      <c r="H3" s="8">
+        <v>83.81</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8">
+        <v>32</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>89.32</v>
+      </c>
+      <c r="H4" s="8">
+        <v>83.22</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="8">
+        <v>91.01</v>
+      </c>
+      <c r="H6" s="8">
+        <v>80.73</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8">
+        <v>87.28</v>
+      </c>
+      <c r="H7" s="8">
+        <v>81.569999999999993</v>
+      </c>
+      <c r="I7" s="8">
+        <v>80.3</v>
+      </c>
+      <c r="J7" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Desafios-NLP/2021-02-Sentimentos-Twitter/Resultados.xlsx
+++ b/Desafios-NLP/2021-02-Sentimentos-Twitter/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\bi-master\Desafios-NLP\2021-02-Sentimentos-Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D50A7A8-22B3-4780-AFC0-732DFC141D51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2535E-CB56-433E-B4A0-60CF6E8B23B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{BC61AAF2-52F3-461E-89E6-B3D31226DBB8}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="19296" windowHeight="10896" activeTab="1" xr2:uid="{BC61AAF2-52F3-461E-89E6-B3D31226DBB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine Learning" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
   <si>
     <t>Tokenizer</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Agrupar Labels</t>
   </si>
   <si>
-    <t>Epochs</t>
-  </si>
-  <si>
     <t>Batch Size</t>
   </si>
   <si>
@@ -143,6 +140,72 @@
   </si>
   <si>
     <t>Bidirecional somente</t>
+  </si>
+  <si>
+    <t>20 (17)</t>
+  </si>
+  <si>
+    <t>Epochs (Best)</t>
+  </si>
+  <si>
+    <t>BI LSTM somente</t>
+  </si>
+  <si>
+    <t>20(19)</t>
+  </si>
+  <si>
+    <t>LSTM Dense(512)</t>
+  </si>
+  <si>
+    <t>BI LSTM Dense(512)</t>
+  </si>
+  <si>
+    <t>20 (15)</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>&lt;unkown&gt; para não encontrados, inclusão de &lt;allcaps&gt;</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>20 (14)</t>
+  </si>
+  <si>
+    <t>88.70 (86.84)</t>
+  </si>
+  <si>
+    <t>82.77 (83.37)</t>
+  </si>
+  <si>
+    <t>20 (11)</t>
+  </si>
+  <si>
+    <t>LSTM Dense(256)</t>
+  </si>
+  <si>
+    <t>82,86</t>
+  </si>
+  <si>
+    <t>Double LSTM (60, 60)</t>
+  </si>
+  <si>
+    <t>Double LSTM (120, 120)</t>
+  </si>
+  <si>
+    <t>Bi Double LSTM (120, 120)</t>
+  </si>
+  <si>
+    <t>20 (10)</t>
+  </si>
+  <si>
+    <t>Nao remover stopwords</t>
+  </si>
+  <si>
+    <t>(2)</t>
   </si>
 </sst>
 </file>
@@ -227,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,6 +323,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1419,20 +1491,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEFB37-A6B4-48CA-B2ED-0A6E3AD82751}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="23.140625" style="8"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="10" width="23.140625" style="8"/>
+    <col min="1" max="4" width="23.140625" style="8"/>
+    <col min="5" max="5" width="31" style="8" customWidth="1"/>
+    <col min="6" max="9" width="23.140625" style="8"/>
+    <col min="10" max="10" width="17.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
@@ -1440,31 +1514,34 @@
         <v>26</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1474,29 +1551,29 @@
       <c r="C2" s="8">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>34</v>
+      <c r="D2" s="8">
+        <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8">
         <v>85.81</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>82.45</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1506,29 +1583,29 @@
       <c r="C3" s="8">
         <v>32</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="8">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8">
         <v>89.31</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>83.81</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1538,29 +1615,29 @@
       <c r="C4" s="8">
         <v>32</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="8">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8">
         <v>89.32</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>83.22</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1570,52 +1647,42 @@
       <c r="C5" s="8">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="8">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8">
-        <v>40</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8">
+        <v>91.01</v>
+      </c>
+      <c r="I5" s="8">
+        <v>80.73</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="8">
-        <v>91.01</v>
-      </c>
-      <c r="H6" s="8">
-        <v>80.73</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1625,29 +1692,29 @@
       <c r="C7" s="8">
         <v>64</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="8">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="G7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="8">
         <v>87.28</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>81.569999999999993</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>80.3</v>
       </c>
-      <c r="J7" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1658,16 +1725,742 @@
         <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="8">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="G8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="8">
+        <v>89.25</v>
+      </c>
+      <c r="I8" s="8">
+        <v>83.02</v>
+      </c>
+      <c r="J8" s="8">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="8">
+        <v>88.27</v>
+      </c>
+      <c r="I9" s="8">
+        <v>80.36</v>
+      </c>
+      <c r="J9" s="8">
+        <v>78.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="8">
+        <v>88.68</v>
+      </c>
+      <c r="I10" s="8">
+        <v>82.64</v>
+      </c>
+      <c r="J10" s="8">
+        <v>80.459999999999994</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8">
+        <v>32</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="8">
+        <v>90.94</v>
+      </c>
+      <c r="I15" s="8">
+        <v>80.28</v>
+      </c>
+      <c r="J15" s="8">
+        <v>77.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8">
+        <v>40</v>
+      </c>
+      <c r="C16" s="8">
+        <v>32</v>
+      </c>
+      <c r="D16" s="8">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="8">
+        <v>91.31</v>
+      </c>
+      <c r="I16" s="8">
+        <v>79.25</v>
+      </c>
+      <c r="J16" s="8">
+        <v>77.040000000000006</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="8">
+        <v>40</v>
+      </c>
+      <c r="C22" s="8">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="8">
+        <v>89.4</v>
+      </c>
+      <c r="I22" s="8">
+        <v>83.81</v>
+      </c>
+      <c r="J22" s="8">
+        <v>81.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="8">
+        <v>40</v>
+      </c>
+      <c r="C23" s="8">
+        <v>32</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="8">
+        <v>80.73</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8">
+        <v>40</v>
+      </c>
+      <c r="C24" s="8">
+        <v>32</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="8">
+        <v>89.28</v>
+      </c>
+      <c r="I24" s="8">
+        <v>83.59</v>
+      </c>
+      <c r="J24" s="8">
+        <v>80.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8">
+        <v>30</v>
+      </c>
+      <c r="C25" s="8">
+        <v>32</v>
+      </c>
+      <c r="D25" s="8">
+        <v>20</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8">
+        <v>88.55</v>
+      </c>
+      <c r="I25" s="8">
+        <v>80.02</v>
+      </c>
+      <c r="J25" s="8">
+        <v>77.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8">
+        <v>40</v>
+      </c>
+      <c r="C31" s="8">
+        <v>32</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="8">
+        <v>90.47</v>
+      </c>
+      <c r="I31" s="8">
+        <v>80.02</v>
+      </c>
+      <c r="J31" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="8">
+        <v>40</v>
+      </c>
+      <c r="C32" s="8">
+        <v>32</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="8">
+        <v>91</v>
+      </c>
+      <c r="I32" s="8">
+        <v>80.08</v>
+      </c>
+      <c r="J32" s="8">
+        <v>78</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="8">
+        <v>40</v>
+      </c>
+      <c r="C38" s="8">
+        <v>32</v>
+      </c>
+      <c r="D38" s="8">
+        <v>20</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="8">
+        <v>88.68</v>
+      </c>
+      <c r="I38" s="8">
+        <v>83.48</v>
+      </c>
+      <c r="J38" s="8">
+        <v>82.91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="8">
+        <v>50</v>
+      </c>
+      <c r="C39" s="8">
+        <v>32</v>
+      </c>
+      <c r="D39" s="8">
+        <v>20</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="8">
+        <v>85.33</v>
+      </c>
+      <c r="I39" s="8">
+        <v>82.45</v>
+      </c>
+      <c r="J39" s="8">
+        <v>80.62</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="8">
+        <v>40</v>
+      </c>
+      <c r="C40" s="8">
+        <v>32</v>
+      </c>
+      <c r="D40" s="8">
+        <v>20</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="8">
+        <v>87.9</v>
+      </c>
+      <c r="I40" s="8">
+        <v>84.24</v>
+      </c>
+      <c r="J40" s="8">
+        <v>82.44</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="8">
+        <v>35</v>
+      </c>
+      <c r="C41" s="8">
+        <v>32</v>
+      </c>
+      <c r="D41" s="8">
+        <v>20</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="8">
+        <v>88.87</v>
+      </c>
+      <c r="I41" s="8">
+        <v>83.78</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="8">
+        <v>40</v>
+      </c>
+      <c r="C42" s="8">
+        <v>128</v>
+      </c>
+      <c r="D42" s="8">
+        <v>20</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="8">
+        <v>89.98</v>
+      </c>
+      <c r="I42" s="8">
+        <v>84.6</v>
+      </c>
+      <c r="J42" s="8">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="8">
+        <v>40</v>
+      </c>
+      <c r="C43" s="8">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8">
+        <v>20</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="8">
+        <v>92.25</v>
+      </c>
+      <c r="I43" s="8">
+        <v>85.53</v>
+      </c>
+      <c r="J43" s="8">
+        <v>83.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="8">
+        <v>40</v>
+      </c>
+      <c r="C44" s="8">
+        <v>128</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="8">
+        <v>91.19</v>
+      </c>
+      <c r="I44" s="8">
+        <v>86.03</v>
+      </c>
+      <c r="J44" s="8">
+        <v>86.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
+        <v>40</v>
+      </c>
+      <c r="C45" s="8">
+        <v>128</v>
+      </c>
+      <c r="D45" s="8">
+        <v>12</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="8">
+        <v>90.51</v>
+      </c>
+      <c r="I45" s="8">
+        <v>84.95</v>
+      </c>
+      <c r="J45" s="8">
+        <v>82.62</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
+        <v>50</v>
+      </c>
+      <c r="C46" s="8">
+        <v>128</v>
+      </c>
+      <c r="D46" s="8">
+        <v>12</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="8">
+        <v>92.89</v>
+      </c>
+      <c r="I46" s="8">
+        <v>87.33</v>
+      </c>
+      <c r="J46" s="8">
+        <v>85.73</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>1</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>2</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B49:J49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Desafios-NLP/2021-02-Sentimentos-Twitter/Resultados.xlsx
+++ b/Desafios-NLP/2021-02-Sentimentos-Twitter/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\bi-master\Desafios-NLP\2021-02-Sentimentos-Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2535E-CB56-433E-B4A0-60CF6E8B23B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8775891-ECE2-4E3D-81DC-53B1737462FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="19296" windowHeight="10896" activeTab="1" xr2:uid="{BC61AAF2-52F3-461E-89E6-B3D31226DBB8}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{BC61AAF2-52F3-461E-89E6-B3D31226DBB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine Learning" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="66">
   <si>
     <t>Tokenizer</t>
   </si>
@@ -206,6 +206,33 @@
   </si>
   <si>
     <t>(2)</t>
+  </si>
+  <si>
+    <t>Bi Double LSTM (120, 120) D(512)</t>
+  </si>
+  <si>
+    <t>GlobalMaxPooling1D</t>
+  </si>
+  <si>
+    <t>Parada Comprometeu</t>
+  </si>
+  <si>
+    <t>(2,3)</t>
+  </si>
+  <si>
+    <t>13(7)</t>
+  </si>
+  <si>
+    <t>Bi Double LSTM (120, 120) GlbMax</t>
+  </si>
+  <si>
+    <t>| &lt;url - url  | &lt;number&gt; - number| novos sinonimos</t>
+  </si>
+  <si>
+    <t>13 (11)</t>
+  </si>
+  <si>
+    <t>(2, 4)</t>
   </si>
 </sst>
 </file>
@@ -328,11 +355,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,23 +681,23 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.68359375" customWidth="1"/>
+    <col min="3" max="3" width="13.15625" customWidth="1"/>
+    <col min="4" max="4" width="12.41796875" customWidth="1"/>
+    <col min="5" max="5" width="20.26171875" customWidth="1"/>
+    <col min="6" max="6" width="11.578125" customWidth="1"/>
+    <col min="7" max="7" width="13.41796875" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="10" max="10" width="14.578125" customWidth="1"/>
+    <col min="11" max="11" width="13.26171875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" customWidth="1"/>
+    <col min="13" max="13" width="29.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -711,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -748,7 +775,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -785,7 +812,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -822,7 +849,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -859,7 +886,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -896,7 +923,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -935,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -970,7 +997,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1032,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1040,7 +1067,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1104,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1141,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1176,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1211,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1246,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
@@ -1254,7 +1281,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1316,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1351,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1386,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1421,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1456,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1493,7 @@
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11" t="s">
         <v>7</v>
       </c>
@@ -1491,22 +1518,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEFB37-A6B4-48CA-B2ED-0A6E3AD82751}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.15625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="23.140625" style="8"/>
+    <col min="1" max="4" width="23.15625" style="8"/>
     <col min="5" max="5" width="31" style="8" customWidth="1"/>
-    <col min="6" max="9" width="23.140625" style="8"/>
-    <col min="10" max="10" width="17.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="8"/>
+    <col min="6" max="9" width="23.15625" style="8"/>
+    <col min="10" max="10" width="17.15625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.15625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
@@ -1541,7 +1568,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1605,7 +1632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +1664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1669,7 +1696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1682,7 +1709,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1741,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1773,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1778,7 +1805,7 @@
         <v>78.17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1809,11 +1836,11 @@
       <c r="J10" s="8">
         <v>80.459999999999994</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1826,7 +1853,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +1885,7 @@
         <v>77.83</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
@@ -1889,11 +1916,11 @@
       <c r="J16" s="8">
         <v>77.040000000000006</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1906,7 +1933,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -1938,7 +1965,7 @@
         <v>81.28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1969,11 +1996,11 @@
       <c r="J23" s="8">
         <v>80.73</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
@@ -2005,7 +2032,7 @@
         <v>80.88</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2064,7 @@
         <v>77.44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2050,7 +2077,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
@@ -2082,7 +2109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8" t="s">
         <v>7</v>
       </c>
@@ -2113,11 +2140,11 @@
       <c r="J32" s="8">
         <v>78</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2130,7 +2157,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8" t="s">
         <v>7</v>
       </c>
@@ -2162,7 +2189,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
@@ -2193,11 +2220,11 @@
       <c r="J39" s="8">
         <v>80.62</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
@@ -2228,11 +2255,11 @@
       <c r="J40" s="8">
         <v>82.44</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8" t="s">
         <v>7</v>
       </c>
@@ -2264,7 +2291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
@@ -2296,7 +2323,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8" t="s">
         <v>7</v>
       </c>
@@ -2328,7 +2355,7 @@
         <v>83.36</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8" t="s">
         <v>7</v>
       </c>
@@ -2359,8 +2386,14 @@
       <c r="J44" s="8">
         <v>86.03</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="B45" s="8">
         <v>40</v>
       </c>
@@ -2388,11 +2421,14 @@
       <c r="J45" s="8">
         <v>82.62</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="B46" s="8">
         <v>50</v>
       </c>
@@ -2420,46 +2456,248 @@
       <c r="J46" s="8">
         <v>85.73</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="8">
+        <v>50</v>
+      </c>
+      <c r="C47" s="8">
+        <v>128</v>
+      </c>
+      <c r="D47" s="8">
+        <v>12</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="8">
+        <v>91.93</v>
+      </c>
+      <c r="I47" s="8">
+        <v>87.4</v>
+      </c>
+      <c r="J47" s="8">
+        <v>85.62</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="8">
+        <v>50</v>
+      </c>
+      <c r="C48" s="8">
+        <v>128</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="8">
+        <v>90.73</v>
+      </c>
+      <c r="I48" s="8">
+        <v>88.57</v>
+      </c>
+      <c r="J48" s="8">
+        <v>85.62</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="8">
+        <v>55</v>
+      </c>
+      <c r="C49" s="8">
+        <v>128</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="8">
+        <v>92.19</v>
+      </c>
+      <c r="I49" s="8">
+        <v>87.78</v>
+      </c>
+      <c r="J49" s="8">
+        <v>86.05</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="8">
+        <v>55</v>
+      </c>
+      <c r="C50" s="8">
+        <v>256</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="8">
+        <v>91.66</v>
+      </c>
+      <c r="I50" s="8">
+        <v>87</v>
+      </c>
+      <c r="J50" s="8">
+        <v>85.49</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="8">
+        <v>55</v>
+      </c>
+      <c r="C51" s="8">
+        <v>64</v>
+      </c>
+      <c r="D51" s="8">
+        <v>13</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="8">
+        <v>94.63</v>
+      </c>
+      <c r="I51" s="8">
+        <v>89.58</v>
+      </c>
+      <c r="J51" s="8">
+        <v>87.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="8">
         <v>1</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B54" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="8">
         <v>2</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B55" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="8">
+        <v>3</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="8">
+        <v>4</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="8">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:J49"/>
+  <mergeCells count="3">
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B57:J57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Desafios-NLP/2021-02-Sentimentos-Twitter/Resultados.xlsx
+++ b/Desafios-NLP/2021-02-Sentimentos-Twitter/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\bi-master\Desafios-NLP\2021-02-Sentimentos-Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8775891-ECE2-4E3D-81DC-53B1737462FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB377E2-7355-446B-9AB8-F130E4DB5960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{BC61AAF2-52F3-461E-89E6-B3D31226DBB8}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Recurrent Neural Network" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
   <si>
     <t>Tokenizer</t>
   </si>
@@ -103,18 +104,12 @@
     <t>Tipo LSTM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Padding</t>
-  </si>
-  <si>
     <t>Acurácia</t>
   </si>
   <si>
     <t>Acurácia Validação</t>
   </si>
   <si>
-    <t>&lt;unknown&gt;</t>
-  </si>
-  <si>
     <t>Tamanho Sentença</t>
   </si>
   <si>
@@ -233,6 +228,33 @@
   </si>
   <si>
     <t>(2, 4)</t>
+  </si>
+  <si>
+    <t>15 (9)</t>
+  </si>
+  <si>
+    <t>Bi Double LSTM (150, 150) GlbMax1D Dropout 0.3</t>
+  </si>
+  <si>
+    <t>sem number, url</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>Bi Double LSTM (120, 120) GlbAverage</t>
+  </si>
+  <si>
+    <t>Bi Double LSTM (150, 150) GlbMax1D Dropout 0.5 + Dense 64</t>
+  </si>
+  <si>
+    <t>Bi Double LSTM (150, 150) GlbMax1D Dropout 0.3 + Dense 128</t>
+  </si>
+  <si>
+    <t>(2,4)</t>
+  </si>
+  <si>
+    <t>10(9)</t>
   </si>
 </sst>
 </file>
@@ -699,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1518,57 +1540,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEFB37-A6B4-48CA-B2ED-0A6E3AD82751}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.15625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="4" width="23.15625" style="8"/>
-    <col min="5" max="5" width="31" style="8" customWidth="1"/>
-    <col min="6" max="9" width="23.15625" style="8"/>
-    <col min="10" max="10" width="17.15625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.15625" style="8"/>
+    <col min="5" max="5" width="55.578125" style="8" customWidth="1"/>
+    <col min="6" max="8" width="23.15625" style="8"/>
+    <col min="9" max="9" width="17.15625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="23.15625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1582,25 +1601,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="G2" s="8">
+        <v>85.81</v>
       </c>
       <c r="H2" s="8">
-        <v>85.81</v>
-      </c>
-      <c r="I2" s="8">
         <v>82.45</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1614,25 +1630,22 @@
         <v>24</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8">
+        <v>89.31</v>
       </c>
       <c r="H3" s="8">
-        <v>89.31</v>
-      </c>
-      <c r="I3" s="8">
         <v>83.81</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1646,25 +1659,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>89.32</v>
       </c>
       <c r="H4" s="8">
-        <v>89.32</v>
-      </c>
-      <c r="I4" s="8">
         <v>83.22</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1678,25 +1688,22 @@
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8">
+        <v>91.01</v>
       </c>
       <c r="H5" s="8">
-        <v>91.01</v>
-      </c>
-      <c r="I5" s="8">
         <v>80.73</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1707,9 +1714,8 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1723,25 +1729,22 @@
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8">
+        <v>87.28</v>
       </c>
       <c r="H7" s="8">
-        <v>87.28</v>
+        <v>81.569999999999993</v>
       </c>
       <c r="I7" s="8">
-        <v>81.569999999999993</v>
-      </c>
-      <c r="J7" s="8">
         <v>80.3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1752,28 +1755,25 @@
         <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8">
+        <v>89.25</v>
       </c>
       <c r="H8" s="8">
-        <v>89.25</v>
+        <v>83.02</v>
       </c>
       <c r="I8" s="8">
-        <v>83.02</v>
-      </c>
-      <c r="J8" s="8">
         <v>80.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1787,25 +1787,22 @@
         <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="G9" s="8">
+        <v>88.27</v>
+      </c>
       <c r="H9" s="8">
-        <v>88.27</v>
+        <v>80.36</v>
       </c>
       <c r="I9" s="8">
-        <v>80.36</v>
-      </c>
-      <c r="J9" s="8">
         <v>78.17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1819,28 +1816,25 @@
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8">
+        <v>88.68</v>
       </c>
       <c r="H10" s="8">
-        <v>88.68</v>
+        <v>82.64</v>
       </c>
       <c r="I10" s="8">
-        <v>82.64</v>
-      </c>
-      <c r="J10" s="8">
         <v>80.459999999999994</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1851,9 +1845,8 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
@@ -1864,28 +1857,25 @@
         <v>32</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8">
+        <v>90.94</v>
       </c>
       <c r="H15" s="8">
-        <v>90.94</v>
+        <v>80.28</v>
       </c>
       <c r="I15" s="8">
-        <v>80.28</v>
-      </c>
-      <c r="J15" s="8">
         <v>77.83</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
@@ -1899,28 +1889,25 @@
         <v>20</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="8">
+        <v>91.31</v>
       </c>
       <c r="H16" s="8">
-        <v>91.31</v>
+        <v>79.25</v>
       </c>
       <c r="I16" s="8">
-        <v>79.25</v>
-      </c>
-      <c r="J16" s="8">
         <v>77.040000000000006</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1931,9 +1918,8 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -1947,25 +1933,22 @@
         <v>20</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="8">
+        <v>89.4</v>
       </c>
       <c r="H22" s="8">
-        <v>89.4</v>
+        <v>83.81</v>
       </c>
       <c r="I22" s="8">
-        <v>83.81</v>
-      </c>
-      <c r="J22" s="8">
         <v>81.28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1976,31 +1959,28 @@
         <v>32</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="8">
+      <c r="I23" s="8">
         <v>80.73</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
@@ -2011,28 +1991,25 @@
         <v>32</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="8">
+        <v>89.28</v>
       </c>
       <c r="H24" s="8">
-        <v>89.28</v>
+        <v>83.59</v>
       </c>
       <c r="I24" s="8">
-        <v>83.59</v>
-      </c>
-      <c r="J24" s="8">
         <v>80.88</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2046,25 +2023,22 @@
         <v>20</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="G25" s="8">
+        <v>88.55</v>
+      </c>
       <c r="H25" s="8">
-        <v>88.55</v>
+        <v>80.02</v>
       </c>
       <c r="I25" s="8">
-        <v>80.02</v>
-      </c>
-      <c r="J25" s="8">
         <v>77.44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2075,9 +2049,8 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
@@ -2088,28 +2061,25 @@
         <v>32</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="8">
+        <v>90.47</v>
       </c>
       <c r="H31" s="8">
-        <v>90.47</v>
+        <v>80.02</v>
       </c>
       <c r="I31" s="8">
-        <v>80.02</v>
-      </c>
-      <c r="J31" s="8">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8" t="s">
         <v>7</v>
       </c>
@@ -2120,31 +2090,28 @@
         <v>32</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="8">
+        <v>91</v>
       </c>
       <c r="H32" s="8">
-        <v>91</v>
+        <v>80.08</v>
       </c>
       <c r="I32" s="8">
-        <v>80.08</v>
-      </c>
-      <c r="J32" s="8">
         <v>78</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2155,9 +2122,8 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8" t="s">
         <v>7</v>
       </c>
@@ -2171,25 +2137,22 @@
         <v>20</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="8">
+        <v>88.68</v>
       </c>
       <c r="H38" s="8">
-        <v>88.68</v>
+        <v>83.48</v>
       </c>
       <c r="I38" s="8">
-        <v>83.48</v>
-      </c>
-      <c r="J38" s="8">
         <v>82.91</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
@@ -2203,28 +2166,25 @@
         <v>20</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="8">
+        <v>85.33</v>
       </c>
       <c r="H39" s="8">
-        <v>85.33</v>
+        <v>82.45</v>
       </c>
       <c r="I39" s="8">
-        <v>82.45</v>
-      </c>
-      <c r="J39" s="8">
         <v>80.62</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J39" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
@@ -2238,28 +2198,25 @@
         <v>20</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="8">
+        <v>87.9</v>
       </c>
       <c r="H40" s="8">
-        <v>87.9</v>
+        <v>84.24</v>
       </c>
       <c r="I40" s="8">
-        <v>84.24</v>
-      </c>
-      <c r="J40" s="8">
         <v>82.44</v>
       </c>
-      <c r="K40" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J40" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8" t="s">
         <v>7</v>
       </c>
@@ -2273,25 +2230,22 @@
         <v>20</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="8">
+        <v>88.87</v>
       </c>
       <c r="H41" s="8">
-        <v>88.87</v>
-      </c>
-      <c r="I41" s="8">
         <v>83.78</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I41" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
@@ -2305,25 +2259,22 @@
         <v>20</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="8">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="8">
+        <v>89.98</v>
       </c>
       <c r="H42" s="8">
-        <v>89.98</v>
+        <v>84.6</v>
       </c>
       <c r="I42" s="8">
-        <v>84.6</v>
-      </c>
-      <c r="J42" s="8">
         <v>82.8</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8" t="s">
         <v>7</v>
       </c>
@@ -2337,25 +2288,22 @@
         <v>20</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="8">
+        <v>92.25</v>
       </c>
       <c r="H43" s="8">
-        <v>92.25</v>
+        <v>85.53</v>
       </c>
       <c r="I43" s="8">
-        <v>85.53</v>
-      </c>
-      <c r="J43" s="8">
         <v>83.36</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8" t="s">
         <v>7</v>
       </c>
@@ -2366,31 +2314,28 @@
         <v>128</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="8">
+        <v>91.19</v>
       </c>
       <c r="H44" s="8">
-        <v>91.19</v>
+        <v>86.03</v>
       </c>
       <c r="I44" s="8">
         <v>86.03</v>
       </c>
-      <c r="J44" s="8">
-        <v>86.03</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J44" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8" t="s">
         <v>7</v>
       </c>
@@ -2404,28 +2349,25 @@
         <v>12</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="8">
+        <v>90.51</v>
       </c>
       <c r="H45" s="8">
-        <v>90.51</v>
+        <v>84.95</v>
       </c>
       <c r="I45" s="8">
-        <v>84.95</v>
-      </c>
-      <c r="J45" s="8">
         <v>82.62</v>
       </c>
-      <c r="K45" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J45" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -2439,28 +2381,25 @@
         <v>12</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="8">
+        <v>92.89</v>
       </c>
       <c r="H46" s="8">
-        <v>92.89</v>
+        <v>87.33</v>
       </c>
       <c r="I46" s="8">
-        <v>87.33</v>
-      </c>
-      <c r="J46" s="8">
         <v>85.73</v>
       </c>
-      <c r="K46" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J46" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8" t="s">
         <v>7</v>
       </c>
@@ -2474,28 +2413,25 @@
         <v>12</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="8">
-        <v>0</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="8">
+        <v>91.93</v>
       </c>
       <c r="H47" s="8">
-        <v>91.93</v>
+        <v>87.4</v>
       </c>
       <c r="I47" s="8">
-        <v>87.4</v>
-      </c>
-      <c r="J47" s="8">
         <v>85.62</v>
       </c>
-      <c r="K47" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J47" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8" t="s">
         <v>7</v>
       </c>
@@ -2506,31 +2442,28 @@
         <v>128</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="8">
+        <v>90.73</v>
       </c>
       <c r="H48" s="8">
-        <v>90.73</v>
+        <v>88.57</v>
       </c>
       <c r="I48" s="8">
-        <v>88.57</v>
-      </c>
-      <c r="J48" s="8">
         <v>85.62</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J48" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8" t="s">
         <v>7</v>
       </c>
@@ -2541,31 +2474,28 @@
         <v>128</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="8">
+        <v>92.19</v>
       </c>
       <c r="H49" s="8">
-        <v>92.19</v>
+        <v>87.78</v>
       </c>
       <c r="I49" s="8">
-        <v>87.78</v>
-      </c>
-      <c r="J49" s="8">
         <v>86.05</v>
       </c>
-      <c r="K49" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J49" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8" t="s">
         <v>7</v>
       </c>
@@ -2576,31 +2506,28 @@
         <v>256</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="8">
+        <v>91.66</v>
       </c>
       <c r="H50" s="8">
-        <v>91.66</v>
+        <v>87</v>
       </c>
       <c r="I50" s="8">
-        <v>87</v>
-      </c>
-      <c r="J50" s="8">
         <v>85.49</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J50" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8" t="s">
         <v>7</v>
       </c>
@@ -2614,90 +2541,281 @@
         <v>13</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="8">
+        <v>94.63</v>
       </c>
       <c r="H51" s="8">
-        <v>94.63</v>
+        <v>89.58</v>
       </c>
       <c r="I51" s="8">
+        <v>87.26</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="8">
+        <v>55</v>
+      </c>
+      <c r="C52" s="8">
+        <v>32</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="8">
+        <v>96.44</v>
+      </c>
+      <c r="H52" s="8">
+        <v>89.38</v>
+      </c>
+      <c r="I52" s="8">
+        <v>87.41</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="8">
+        <v>55</v>
+      </c>
+      <c r="C53" s="8">
+        <v>32</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="8">
+        <v>92.94</v>
+      </c>
+      <c r="H53" s="8">
+        <v>89.3</v>
+      </c>
+      <c r="I53" s="8">
+        <v>87.26</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="8">
+        <v>55</v>
+      </c>
+      <c r="C54" s="8">
+        <v>32</v>
+      </c>
+      <c r="D54" s="8">
+        <v>15</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="8">
+        <v>93.87</v>
+      </c>
+      <c r="H54" s="8">
+        <v>88.86</v>
+      </c>
+      <c r="I54" s="8">
+        <v>86.8</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="8">
+        <v>55</v>
+      </c>
+      <c r="C55" s="8">
+        <v>32</v>
+      </c>
+      <c r="D55" s="8">
+        <v>15</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="8">
+        <v>93.72</v>
+      </c>
+      <c r="H55" s="8">
+        <v>89.26</v>
+      </c>
+      <c r="I55" s="8">
+        <v>87.12</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="8">
+        <v>55</v>
+      </c>
+      <c r="C56" s="8">
+        <v>32</v>
+      </c>
+      <c r="D56" s="8">
+        <v>15</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="8">
+        <v>93.16</v>
+      </c>
+      <c r="H56" s="8">
+        <v>89.22</v>
+      </c>
+      <c r="I56" s="8">
+        <v>87.18</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="8">
+        <v>55</v>
+      </c>
+      <c r="C57" s="8">
+        <v>32</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="8">
+        <v>96.6</v>
+      </c>
+      <c r="H57" s="8">
         <v>89.58</v>
       </c>
-      <c r="J51" s="8">
-        <v>87.26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="8">
-        <v>1</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="8">
-        <v>2</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="8">
-        <v>3</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="8">
-        <v>4</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I57" s="8">
+        <v>87.78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8">
         <v>5</v>
       </c>
     </row>
+    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="8">
+        <v>1</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="8">
+        <v>2</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="8">
+        <v>3</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="8">
+        <v>4</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="8">
+        <v>5</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B62:I62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
